--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C9642-5E5B-4249-B406-C5FD4D7FBCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17600EDC-3FDB-4D0C-876C-477374984104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="393">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Android Debug Bridge</t>
   </si>
   <si>
-    <t>Audio Device Manager</t>
-  </si>
-  <si>
     <t>Adaptive Input Gain</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>Qualcomm Technologies, Inc.</t>
   </si>
   <si>
-    <t>Qualcomm Universal Serial Engine</t>
-  </si>
-  <si>
     <t>Rapid Bridge Core Power Reduction</t>
   </si>
   <si>
@@ -1150,6 +1144,66 @@
   </si>
   <si>
     <t>Wideband</t>
+  </si>
+  <si>
+    <t>Radio Access Technologies</t>
+  </si>
+  <si>
+    <t>RAT</t>
+  </si>
+  <si>
+    <t>IrDA</t>
+  </si>
+  <si>
+    <t>Infrared Data Association</t>
+  </si>
+  <si>
+    <t>GSBI</t>
+  </si>
+  <si>
+    <t>General Serial Bus Interface</t>
+  </si>
+  <si>
+    <t>Qualcomm Universal Peripheral (Serial)</t>
+  </si>
+  <si>
+    <t>BLSP</t>
+  </si>
+  <si>
+    <t>BAM Low-Speed Peripheral</t>
+  </si>
+  <si>
+    <t>Audio Device Manager, Application Data Mover</t>
+  </si>
+  <si>
+    <t>AHB</t>
+  </si>
+  <si>
+    <t>Advance High-performance Bus</t>
+  </si>
+  <si>
+    <t>SDCC</t>
+  </si>
+  <si>
+    <t>Secure Digital Card Controller</t>
+  </si>
+  <si>
+    <t>UIM</t>
+  </si>
+  <si>
+    <t>User Identify Module</t>
+  </si>
+  <si>
+    <t>SMEM</t>
+  </si>
+  <si>
+    <t>Shared Memory</t>
+  </si>
+  <si>
+    <t>SMSM</t>
+  </si>
+  <si>
+    <t>Shared Memory State Machine</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1220,11 +1274,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection sqref="A1:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,19 +1572,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
-        <v>178</v>
+      <c r="B2" t="s">
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1540,7 +1593,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1549,403 +1602,403 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>383</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>187</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>188</v>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>38</v>
@@ -1954,1291 +2007,1372 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>58</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>72</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="6" t="s">
-        <v>345</v>
+      <c r="A95" s="2"/>
+      <c r="B95" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="6" t="s">
-        <v>347</v>
+      <c r="A97" s="2"/>
+      <c r="B97" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>348</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>277</v>
+        <v>91</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>349</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="6" t="s">
-        <v>350</v>
+      <c r="A142" s="2"/>
+      <c r="B142" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>351</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
+      <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>353</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>355</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>148</v>
+        <v>386</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
+      <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>155</v>
+      <c r="A168" s="1"/>
+      <c r="B168" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
-      <c r="B170" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>357</v>
+      <c r="B170" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
+      <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>361</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
+      <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
+      <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>366</v>
+        <v>158</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
+      <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>368</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+      <c r="B194" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+      <c r="B196" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+      <c r="B198" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C191">
-    <sortCondition ref="B1:B191"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C200">
+    <sortCondition ref="B1:B200"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17600EDC-3FDB-4D0C-876C-477374984104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBD826-63E4-4816-BDEF-E75BAF161DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31050" yWindow="1530" windowWidth="24795" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="407">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Automatic Volume Control </t>
   </si>
   <si>
-    <t>Bus Access Manager</t>
-  </si>
-  <si>
     <t>Carrier Aggregation</t>
   </si>
   <si>
@@ -1204,6 +1201,51 @@
   </si>
   <si>
     <t>Shared Memory State Machine</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>Data mover local</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>Externalsecure element</t>
+  </si>
+  <si>
+    <t>Bus Access Manager, Bus Access Module</t>
+  </si>
+  <si>
+    <t>DTB</t>
+  </si>
+  <si>
+    <t>Device Tree Blob</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>Device Tree Source</t>
+  </si>
+  <si>
+    <t>DTS Compiler Tool</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>End Of Transfer</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Little Kernel</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1300,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1277,7 +1330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,1816 +1611,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection sqref="A1:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="1"/>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="1"/>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>372</v>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B203" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B204" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B205" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B206" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B207" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBD826-63E4-4816-BDEF-E75BAF161DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44787A1-68EB-4442-9015-F989E7FC6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="1530" windowWidth="24795" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="409">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -1246,6 +1246,12 @@
   </si>
   <si>
     <t>Little Kernel</t>
+  </si>
+  <si>
+    <t>ASoC</t>
+  </si>
+  <si>
+    <t>Alsa System On Chip</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1300,17 +1306,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1330,7 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1611,19 +1606,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
@@ -1634,7 +1629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>175</v>
@@ -1643,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>176</v>
@@ -1652,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>193</v>
@@ -1661,7 +1656,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>177</v>
@@ -1670,7 +1665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>179</v>
@@ -1679,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>382</v>
@@ -1688,7 +1683,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>194</v>
@@ -1697,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>180</v>
@@ -1706,7 +1701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>195</v>
@@ -1715,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>196</v>
@@ -1724,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>197</v>
@@ -1733,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>182</v>
@@ -1742,7 +1737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>198</v>
@@ -1751,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>199</v>
@@ -1760,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>200</v>
@@ -1769,7 +1764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>201</v>
@@ -1778,7 +1773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>202</v>
@@ -1787,7 +1782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>203</v>
@@ -1796,7 +1791,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>183</v>
@@ -1805,7 +1800,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>185</v>
@@ -1814,7 +1809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>379</v>
@@ -1823,7 +1818,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>204</v>
@@ -1832,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>205</v>
@@ -1841,7 +1836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>187</v>
@@ -1850,7 +1845,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>206</v>
@@ -1859,7 +1854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>189</v>
@@ -1868,7 +1863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>189</v>
@@ -1877,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>207</v>
@@ -1886,7 +1881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>208</v>
@@ -1895,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>209</v>
@@ -1904,7 +1899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>210</v>
@@ -1913,7 +1908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>211</v>
@@ -1922,7 +1917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>190</v>
@@ -1931,7 +1926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>191</v>
@@ -1940,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>192</v>
@@ -1949,7 +1944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>212</v>
@@ -1958,7 +1953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>213</v>
@@ -1967,7 +1962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>214</v>
@@ -1976,7 +1971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>215</v>
@@ -1985,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>216</v>
@@ -1994,7 +1989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>217</v>
@@ -2003,7 +1998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>218</v>
@@ -2012,7 +2007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>219</v>
@@ -2021,7 +2016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>220</v>
@@ -2030,7 +2025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>221</v>
@@ -2039,7 +2034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -2048,7 +2043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
         <v>222</v>
@@ -2057,7 +2052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
         <v>223</v>
@@ -2066,7 +2061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
         <v>224</v>
@@ -2075,7 +2070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>225</v>
@@ -2084,7 +2079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>226</v>
@@ -2093,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
         <v>227</v>
@@ -2102,7 +2097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
         <v>228</v>
@@ -2111,7 +2106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
         <v>229</v>
@@ -2120,7 +2115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>230</v>
@@ -2129,7 +2124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>231</v>
@@ -2138,7 +2133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
         <v>232</v>
@@ -2147,7 +2142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
         <v>233</v>
@@ -2156,7 +2151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>234</v>
@@ -2165,7 +2160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
         <v>235</v>
@@ -2174,7 +2169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
         <v>236</v>
@@ -2183,7 +2178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
         <v>51</v>
@@ -2192,7 +2187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>237</v>
@@ -2201,7 +2196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>376</v>
@@ -2210,7 +2205,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
         <v>238</v>
@@ -2219,7 +2214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>239</v>
@@ -2228,7 +2223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>240</v>
@@ -2237,7 +2232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>241</v>
@@ -2246,7 +2241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>242</v>
@@ -2255,7 +2250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>243</v>
@@ -2264,7 +2259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>244</v>
@@ -2273,7 +2268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>245</v>
@@ -2282,7 +2277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
         <v>245</v>
@@ -2291,7 +2286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>246</v>
@@ -2300,7 +2295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>247</v>
@@ -2309,7 +2304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>248</v>
@@ -2318,7 +2313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>249</v>
@@ -2327,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>374</v>
@@ -2336,7 +2331,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>250</v>
@@ -2345,7 +2340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>251</v>
@@ -2354,7 +2349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>252</v>
@@ -2363,7 +2358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>253</v>
@@ -2372,7 +2367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>254</v>
@@ -2381,7 +2376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>255</v>
@@ -2390,7 +2385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>256</v>
@@ -2399,7 +2394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>257</v>
@@ -2408,7 +2403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>258</v>
@@ -2417,7 +2412,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>259</v>
@@ -2426,7 +2421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>260</v>
@@ -2435,7 +2430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>261</v>
@@ -2444,7 +2439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>172</v>
@@ -2453,7 +2448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>79</v>
@@ -2462,7 +2457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>262</v>
@@ -2471,7 +2466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>263</v>
@@ -2480,7 +2475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>264</v>
@@ -2489,7 +2484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>265</v>
@@ -2498,7 +2493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>266</v>
@@ -2507,7 +2502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>342</v>
@@ -2516,7 +2511,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>267</v>
@@ -2525,7 +2520,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>344</v>
@@ -2534,7 +2529,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>268</v>
@@ -2543,7 +2538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>269</v>
@@ -2552,7 +2547,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>270</v>
@@ -2561,7 +2556,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>90</v>
@@ -2570,7 +2565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>271</v>
@@ -2579,7 +2574,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>272</v>
@@ -2588,7 +2583,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>273</v>
@@ -2597,7 +2592,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>274</v>
@@ -2606,7 +2601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>275</v>
@@ -2615,7 +2610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>276</v>
@@ -2624,7 +2619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>277</v>
@@ -2633,7 +2628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>278</v>
@@ -2642,7 +2637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>279</v>
@@ -2651,7 +2646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>280</v>
@@ -2660,7 +2655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>281</v>
@@ -2669,7 +2664,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>282</v>
@@ -2678,7 +2673,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>283</v>
@@ -2687,7 +2682,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>284</v>
@@ -2696,7 +2691,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>285</v>
@@ -2705,7 +2700,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>286</v>
@@ -2714,7 +2709,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>287</v>
@@ -2723,7 +2718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>288</v>
@@ -2732,7 +2727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
         <v>288</v>
@@ -2741,7 +2736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>289</v>
@@ -2750,7 +2745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>290</v>
@@ -2759,7 +2754,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>291</v>
@@ -2768,7 +2763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
         <v>292</v>
@@ -2777,7 +2772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
         <v>293</v>
@@ -2786,7 +2781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
         <v>294</v>
@@ -2795,7 +2790,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
         <v>295</v>
@@ -2804,7 +2799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
         <v>296</v>
@@ -2813,7 +2808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>297</v>
@@ -2822,7 +2817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
         <v>298</v>
@@ -2831,7 +2826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
         <v>299</v>
@@ -2840,7 +2835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>300</v>
@@ -2849,7 +2844,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
         <v>301</v>
@@ -2858,7 +2853,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
         <v>302</v>
@@ -2867,7 +2862,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
         <v>303</v>
@@ -2876,7 +2871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>373</v>
@@ -2885,7 +2880,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
         <v>304</v>
@@ -2894,7 +2889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
         <v>305</v>
@@ -2903,7 +2898,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
         <v>306</v>
@@ -2912,7 +2907,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>307</v>
@@ -2921,7 +2916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>308</v>
@@ -2930,7 +2925,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>309</v>
@@ -2939,7 +2934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>347</v>
@@ -2948,7 +2943,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>310</v>
@@ -2957,7 +2952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>311</v>
@@ -2966,7 +2961,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
         <v>312</v>
@@ -2975,7 +2970,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>313</v>
@@ -2984,7 +2979,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>314</v>
@@ -2993,7 +2988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>315</v>
@@ -3002,7 +2997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
         <v>316</v>
@@ -3011,14 +3006,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>317</v>
@@ -3027,7 +3022,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>317</v>
@@ -3036,7 +3031,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>349</v>
@@ -3045,7 +3040,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>318</v>
@@ -3054,7 +3049,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>384</v>
@@ -3063,7 +3058,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>319</v>
@@ -3072,7 +3067,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
         <v>320</v>
@@ -3081,7 +3076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
         <v>321</v>
@@ -3090,7 +3085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
         <v>143</v>
@@ -3099,7 +3094,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>351</v>
@@ -3108,7 +3103,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>322</v>
@@ -3117,7 +3112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>323</v>
@@ -3126,7 +3121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>388</v>
@@ -3135,7 +3130,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>324</v>
@@ -3144,7 +3139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>390</v>
@@ -3153,7 +3148,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>325</v>
@@ -3162,7 +3157,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
         <v>326</v>
@@ -3171,7 +3166,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
         <v>327</v>
@@ -3180,7 +3175,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
         <v>328</v>
@@ -3189,7 +3184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>355</v>
@@ -3198,7 +3193,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>329</v>
@@ -3207,7 +3202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>330</v>
@@ -3216,7 +3211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>353</v>
@@ -3225,7 +3220,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>331</v>
@@ -3234,7 +3229,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>357</v>
@@ -3243,7 +3238,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>332</v>
@@ -3252,7 +3247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
         <v>333</v>
@@ -3261,7 +3256,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
         <v>334</v>
@@ -3270,7 +3265,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
         <v>335</v>
@@ -3279,7 +3274,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>336</v>
@@ -3288,7 +3283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>359</v>
@@ -3297,7 +3292,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>337</v>
@@ -3306,7 +3301,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>386</v>
@@ -3315,7 +3310,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
         <v>161</v>
@@ -3324,7 +3319,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
         <v>338</v>
@@ -3333,7 +3328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>338</v>
@@ -3342,7 +3337,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>362</v>
@@ -3351,7 +3346,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>364</v>
@@ -3360,7 +3355,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="1" t="s">
         <v>164</v>
@@ -3369,7 +3364,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>366</v>
@@ -3378,7 +3373,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
         <v>339</v>
@@ -3387,7 +3382,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>368</v>
@@ -3396,7 +3391,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
         <v>340</v>
@@ -3405,7 +3400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
         <v>341</v>
@@ -3414,7 +3409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>370</v>
@@ -3423,7 +3418,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>392</v>
@@ -3432,7 +3427,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>394</v>
@@ -3441,44 +3436,58 @@
         <v>395</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B203" s="6" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B204" s="6" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B205" s="6" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B206" s="6" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B207" s="6" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="1" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44787A1-68EB-4442-9015-F989E7FC6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09818A8A-0750-4827-912A-8252CDEF49C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="1740" windowWidth="19410" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="421">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -561,9 +561,6 @@
     <t>ADSP</t>
   </si>
   <si>
-    <t>Audio Digital Signal Processor</t>
-  </si>
-  <si>
     <t>AFE</t>
   </si>
   <si>
@@ -1252,6 +1249,45 @@
   </si>
   <si>
     <t>Alsa System On Chip</t>
+  </si>
+  <si>
+    <t>Audio Digital Signal Processor, Application Digital Signal Processor</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>External Bus Interface</t>
+  </si>
+  <si>
+    <t>EFR</t>
+  </si>
+  <si>
+    <t>Enhanced Full Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNS </t>
+  </si>
+  <si>
+    <t>Far-end Noise Suppressor</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Full Rate</t>
+  </si>
+  <si>
+    <t>Half Rate</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>Microphone</t>
   </si>
 </sst>
 </file>
@@ -1606,16 +1642,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1687,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,13 +1699,13 @@
         <v>177</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1677,16 +1714,16 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1695,16 +1732,16 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1713,7 +1750,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1722,7 +1759,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1731,7 +1768,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1740,7 +1777,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1749,7 +1786,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1758,7 +1795,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1767,7 +1804,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>171</v>
@@ -1776,7 +1813,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1785,43 +1822,43 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1830,7 +1867,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -1839,16 +1876,16 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
@@ -1857,7 +1894,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>20</v>
@@ -1866,7 +1903,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -1875,7 +1912,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -1884,7 +1921,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -1893,7 +1930,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -1902,7 +1939,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
@@ -1911,7 +1948,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -1920,7 +1957,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -1929,7 +1966,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
@@ -1938,7 +1975,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>23</v>
@@ -1947,7 +1984,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
@@ -1956,7 +1993,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>25</v>
@@ -1965,7 +2002,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>26</v>
@@ -1974,7 +2011,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
@@ -1983,7 +2020,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -1992,7 +2029,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>29</v>
@@ -2001,7 +2038,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>30</v>
@@ -2010,7 +2047,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>31</v>
@@ -2019,7 +2056,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2028,7 +2065,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
@@ -2046,7 +2083,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>37</v>
@@ -2055,7 +2092,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>38</v>
@@ -2064,7 +2101,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>36</v>
@@ -2073,7 +2110,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>39</v>
@@ -2082,7 +2119,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>40</v>
@@ -2091,7 +2128,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>42</v>
@@ -2100,7 +2137,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>43</v>
@@ -2109,7 +2146,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>44</v>
@@ -2118,7 +2155,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
@@ -2127,7 +2164,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>41</v>
@@ -2136,7 +2173,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
@@ -2145,7 +2182,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>47</v>
@@ -2154,7 +2191,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>48</v>
@@ -2163,7 +2200,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>49</v>
@@ -2172,7 +2209,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
@@ -2190,7 +2227,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>53</v>
@@ -2199,16 +2236,16 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>54</v>
@@ -2217,7 +2254,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>55</v>
@@ -2226,7 +2263,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>56</v>
@@ -2235,7 +2272,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>57</v>
@@ -2244,7 +2281,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>58</v>
@@ -2253,7 +2290,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>59</v>
@@ -2262,7 +2299,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>60</v>
@@ -2271,7 +2308,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>63</v>
@@ -2280,7 +2317,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>62</v>
@@ -2289,7 +2326,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>64</v>
@@ -2298,7 +2335,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>61</v>
@@ -2307,7 +2344,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>65</v>
@@ -2316,7 +2353,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>66</v>
@@ -2325,16 +2362,16 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>67</v>
@@ -2343,7 +2380,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>68</v>
@@ -2352,7 +2389,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>69</v>
@@ -2361,7 +2398,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>70</v>
@@ -2370,7 +2407,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>71</v>
@@ -2379,7 +2416,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>72</v>
@@ -2388,7 +2425,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>73</v>
@@ -2397,7 +2434,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>74</v>
@@ -2406,7 +2443,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>75</v>
@@ -2415,7 +2452,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>76</v>
@@ -2424,7 +2461,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>77</v>
@@ -2433,7 +2470,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>78</v>
@@ -2460,7 +2497,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>81</v>
@@ -2469,7 +2506,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>82</v>
@@ -2478,7 +2515,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>83</v>
@@ -2487,7 +2524,7 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>84</v>
@@ -2496,7 +2533,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>85</v>
@@ -2505,16 +2542,16 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>86</v>
@@ -2523,16 +2560,16 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>87</v>
@@ -2541,7 +2578,7 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>88</v>
@@ -2550,7 +2587,7 @@
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>89</v>
@@ -2568,7 +2605,7 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>92</v>
@@ -2577,7 +2614,7 @@
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>93</v>
@@ -2586,7 +2623,7 @@
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>94</v>
@@ -2595,7 +2632,7 @@
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>95</v>
@@ -2604,7 +2641,7 @@
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>96</v>
@@ -2613,7 +2650,7 @@
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>97</v>
@@ -2622,7 +2659,7 @@
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>98</v>
@@ -2631,7 +2668,7 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>99</v>
@@ -2640,7 +2677,7 @@
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>100</v>
@@ -2649,7 +2686,7 @@
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>101</v>
@@ -2658,7 +2695,7 @@
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>102</v>
@@ -2667,7 +2704,7 @@
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>103</v>
@@ -2676,7 +2713,7 @@
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>104</v>
@@ -2685,7 +2722,7 @@
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>105</v>
@@ -2694,7 +2731,7 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>106</v>
@@ -2703,7 +2740,7 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>107</v>
@@ -2712,7 +2749,7 @@
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>108</v>
@@ -2721,7 +2758,7 @@
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>110</v>
@@ -2730,7 +2767,7 @@
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>109</v>
@@ -2739,7 +2776,7 @@
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>111</v>
@@ -2748,7 +2785,7 @@
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>112</v>
@@ -2757,7 +2794,7 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>113</v>
@@ -2766,7 +2803,7 @@
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>114</v>
@@ -2775,7 +2812,7 @@
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>115</v>
@@ -2784,7 +2821,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>116</v>
@@ -2793,7 +2830,7 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>117</v>
@@ -2802,7 +2839,7 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>118</v>
@@ -2811,7 +2848,7 @@
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>119</v>
@@ -2820,7 +2857,7 @@
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>120</v>
@@ -2829,7 +2866,7 @@
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>122</v>
@@ -2838,16 +2875,16 @@
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>121</v>
@@ -2856,7 +2893,7 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>123</v>
@@ -2865,25 +2902,25 @@
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>124</v>
@@ -2892,7 +2929,7 @@
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>127</v>
@@ -2901,7 +2938,7 @@
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>128</v>
@@ -2910,7 +2947,7 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>125</v>
@@ -2919,7 +2956,7 @@
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>131</v>
@@ -2928,7 +2965,7 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>126</v>
@@ -2937,16 +2974,16 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>129</v>
@@ -2955,7 +2992,7 @@
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>130</v>
@@ -2964,7 +3001,7 @@
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>132</v>
@@ -2973,7 +3010,7 @@
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>133</v>
@@ -2982,7 +3019,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>134</v>
@@ -2991,7 +3028,7 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>135</v>
@@ -3000,7 +3037,7 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>136</v>
@@ -3016,7 +3053,7 @@
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>138</v>
@@ -3025,7 +3062,7 @@
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>138</v>
@@ -3034,16 +3071,16 @@
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>139</v>
@@ -3052,16 +3089,16 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>140</v>
@@ -3070,7 +3107,7 @@
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>141</v>
@@ -3079,7 +3116,7 @@
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>142</v>
@@ -3097,16 +3134,16 @@
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>145</v>
@@ -3115,7 +3152,7 @@
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>146</v>
@@ -3124,16 +3161,16 @@
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>147</v>
@@ -3142,16 +3179,16 @@
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>148</v>
@@ -3160,7 +3197,7 @@
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>149</v>
@@ -3169,7 +3206,7 @@
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>150</v>
@@ -3178,7 +3215,7 @@
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>151</v>
@@ -3187,16 +3224,16 @@
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>152</v>
@@ -3205,7 +3242,7 @@
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>153</v>
@@ -3214,16 +3251,16 @@
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>154</v>
@@ -3232,16 +3269,16 @@
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>155</v>
@@ -3250,7 +3287,7 @@
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>156</v>
@@ -3259,7 +3296,7 @@
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>157</v>
@@ -3268,7 +3305,7 @@
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>158</v>
@@ -3277,7 +3314,7 @@
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>159</v>
@@ -3286,16 +3323,16 @@
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>160</v>
@@ -3304,10 +3341,10 @@
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,7 +3359,7 @@
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>163</v>
@@ -3331,28 +3368,28 @@
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,16 +3404,16 @@
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>166</v>
@@ -3385,16 +3422,16 @@
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>167</v>
@@ -3403,7 +3440,7 @@
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>168</v>
@@ -3412,82 +3449,136 @@
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>408</v>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09818A8A-0750-4827-912A-8252CDEF49C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B682B9B-A416-45CD-B969-75F1943822C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="1740" windowWidth="19410" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="435">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -1288,6 +1288,48 @@
   </si>
   <si>
     <t>Microphone</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>Non-Maskable Interrupt</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Long Term Evolution</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>IP Multimedia Subsystem</t>
+  </si>
+  <si>
+    <t>RRC</t>
+  </si>
+  <si>
+    <t>Radio Resource Control</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>Radio Link Control</t>
+  </si>
+  <si>
+    <t>UMTS</t>
+  </si>
+  <si>
+    <t>Universal Mobile Telecommunications System</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>Global System for Mobile Communications</t>
   </si>
 </sst>
 </file>
@@ -1642,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,115 +1835,115 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>188</v>
       </c>
@@ -1910,1680 +1952,1743 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>226</v>
+        <v>398</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>234</v>
+        <v>411</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>236</v>
+        <v>402</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>375</v>
+        <v>230</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>376</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>237</v>
+        <v>393</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>60</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>374</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>76</v>
+      <c r="A89" s="1"/>
+      <c r="B89" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>172</v>
+        <v>373</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>263</v>
+        <v>404</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>83</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>342</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="1" t="s">
-        <v>266</v>
+      <c r="A100" s="1"/>
+      <c r="B100" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>272</v>
+        <v>419</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>94</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>101</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>286</v>
+        <v>421</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
+      <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>371</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>347</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>135</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>138</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>349</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>384</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="1" t="s">
-        <v>350</v>
+      <c r="B165" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>388</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
+      <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>390</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
+      <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>355</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>153</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
+      <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>353</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>154</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
+      <c r="A180" s="2"/>
       <c r="B180" s="1" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>158</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
+      <c r="A186" s="2"/>
       <c r="B186" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>359</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>160</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
+      <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>162</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
+      <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
+      <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>362</v>
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
+      <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>364</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
+      <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>366</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
+      <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>370</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>392</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>397</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>400</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="2"/>
       <c r="B206" s="1" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>403</v>
+        <v>160</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="1" t="s">
-        <v>406</v>
+      <c r="B208" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
+      <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>410</v>
+        <v>161</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
+      <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>412</v>
+        <v>337</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>414</v>
+        <v>337</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
-        <v>419</v>
+        <v>164</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>420</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+      <c r="B216" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+      <c r="B218" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+      <c r="B219" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C200">
-    <sortCondition ref="B1:B200"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C220">
+    <sortCondition ref="B1:B220"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B682B9B-A416-45CD-B969-75F1943822C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB1F6D-1F9E-4EA1-8D03-2F6BAB5D9AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="4590" windowWidth="19620" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="455">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -1330,6 +1330,66 @@
   </si>
   <si>
     <t>Global System for Mobile Communications</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Envelope Tracking</t>
+  </si>
+  <si>
+    <t>Power Added Efficiency</t>
+  </si>
+  <si>
+    <t>CPL</t>
+  </si>
+  <si>
+    <t>Coupler (output port)</t>
+  </si>
+  <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>Low Noise Amplifier</t>
+  </si>
+  <si>
+    <t>WTR</t>
+  </si>
+  <si>
+    <t>Wafer-level transceiver</t>
+  </si>
+  <si>
+    <t>BBRX_IP</t>
+  </si>
+  <si>
+    <t>Baseband Receiver, In-phase Plus</t>
+  </si>
+  <si>
+    <t>BBRX_IM</t>
+  </si>
+  <si>
+    <t>Baseband Receiver, In-phase Minus</t>
+  </si>
+  <si>
+    <t>BBRX_QP</t>
+  </si>
+  <si>
+    <t>Baseband Receiver, Quadrature Plus</t>
+  </si>
+  <si>
+    <t>BBRX_QM</t>
+  </si>
+  <si>
+    <t>Baseband Receiver, Quadrature Minus</t>
+  </si>
+  <si>
+    <t>QPNP</t>
+  </si>
+  <si>
+    <t>Qualcomm Plug N Play</t>
   </si>
 </sst>
 </file>
@@ -1684,16 +1744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2493,10 +2553,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2592,7 +2652,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3177,7 +3237,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -3562,7 +3622,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="1" t="s">
         <v>431</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -3684,6 +3744,96 @@
       </c>
       <c r="C221" s="1" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FB1F6D-1F9E-4EA1-8D03-2F6BAB5D9AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CB4F2-22E9-4D2F-8763-7B30DA1D450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="4590" windowWidth="19620" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronym" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="459">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -1390,6 +1390,18 @@
   </si>
   <si>
     <t>Qualcomm Plug N Play</t>
+  </si>
+  <si>
+    <t>IQ modulation</t>
+  </si>
+  <si>
+    <t>In-phase and Quadrature modulation</t>
+  </si>
+  <si>
+    <t>SDHCI</t>
+  </si>
+  <si>
+    <t>Secure Digital Host Controller Interface</t>
   </si>
 </sst>
 </file>
@@ -1744,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F219" sqref="F219"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,11 +3841,29 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="1" t="s">
         <v>454</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Acronym.xlsx
+++ b/Acronym.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Technical\Aconym\acronym_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CB4F2-22E9-4D2F-8763-7B30DA1D450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56C557-89E6-45B3-A0FB-DFBD13FFE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="465">
   <si>
     <t>Audio Calibration Database</t>
   </si>
@@ -189,12 +189,6 @@
     <t>Global Offset Table</t>
   </si>
   <si>
-    <t>Gegeric Sim Driver Interface</t>
-  </si>
-  <si>
-    <t>Gegeric Sim Application Toolkit ?</t>
-  </si>
-  <si>
     <t>High-level Data Link Control</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Mobile Industry Processor Interface</t>
   </si>
   <si>
-    <t>Multimode Gegeric Sim Driver Interface</t>
-  </si>
-  <si>
     <t>Multimode Control</t>
   </si>
   <si>
@@ -504,9 +495,6 @@
     <t>Type-Length-Value</t>
   </si>
   <si>
-    <t>Teleypewriter</t>
-  </si>
-  <si>
     <t>Universal Integrated Circuit Card</t>
   </si>
   <si>
@@ -1209,9 +1197,6 @@
     <t>ESE</t>
   </si>
   <si>
-    <t>Externalsecure element</t>
-  </si>
-  <si>
     <t>Bus Access Manager, Bus Access Module</t>
   </si>
   <si>
@@ -1402,6 +1387,39 @@
   </si>
   <si>
     <t>Secure Digital Host Controller Interface</t>
+  </si>
+  <si>
+    <t>BIMC</t>
+  </si>
+  <si>
+    <t>Network on Chip</t>
+  </si>
+  <si>
+    <t>NoC</t>
+  </si>
+  <si>
+    <t>Bus Interface Memory Controller</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Secure Channel Manager</t>
+  </si>
+  <si>
+    <t>Teletypewriter</t>
+  </si>
+  <si>
+    <t>Generic Sim Driver Interface</t>
+  </si>
+  <si>
+    <t>Generic Sim Application Toolkit ?</t>
+  </si>
+  <si>
+    <t>Multimode Generic Sim Driver Interface</t>
+  </si>
+  <si>
+    <t>External Secure Element</t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,19 +1789,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1792,7 +1810,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1801,25 +1819,25 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1828,16 +1846,16 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1846,16 +1864,16 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -1864,7 +1882,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1873,7 +1891,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -1882,7 +1900,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1891,7 +1909,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1900,7 +1918,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1909,16 +1927,16 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -1927,16 +1945,16 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1945,43 +1963,43 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
@@ -1990,7 +2008,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -1999,16 +2017,16 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
@@ -2017,7 +2035,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
@@ -2026,7 +2044,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>20</v>
@@ -2035,7 +2053,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
@@ -2044,7 +2062,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -2053,7 +2071,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>21</v>
@@ -2062,7 +2080,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -2071,7 +2089,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
@@ -2080,7 +2098,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
@@ -2089,7 +2107,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -2098,7 +2116,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -2107,7 +2125,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
@@ -2116,7 +2134,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
@@ -2125,7 +2143,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>26</v>
@@ -2134,7 +2152,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>27</v>
@@ -2143,7 +2161,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -2152,7 +2170,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>29</v>
@@ -2161,7 +2179,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>30</v>
@@ -2170,7 +2188,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>31</v>
@@ -2179,7 +2197,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2188,7 +2206,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
@@ -2197,10 +2215,10 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2215,7 +2233,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>37</v>
@@ -2224,7 +2242,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>38</v>
@@ -2233,34 +2251,34 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -2269,7 +2287,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>39</v>
@@ -2278,16 +2296,16 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>40</v>
@@ -2296,7 +2314,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>42</v>
@@ -2305,7 +2323,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>43</v>
@@ -2314,16 +2332,16 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>44</v>
@@ -2332,7 +2350,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>45</v>
@@ -2341,16 +2359,16 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>41</v>
@@ -2359,16 +2377,16 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>46</v>
@@ -2377,7 +2395,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>47</v>
@@ -2386,7 +2404,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>48</v>
@@ -2395,16 +2413,16 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>49</v>
@@ -2413,16 +2431,16 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>50</v>
@@ -2440,7 +2458,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>53</v>
@@ -2449,1421 +2467,1448 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>54</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>55</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>81</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C233" s="6" t="s">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="6" t="s">
         <v>458</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
